--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>781489.4527323907</v>
+        <v>776975.5822262926</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30071494.53895964</v>
+        <v>30071494.53895963</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7390920.207281977</v>
+        <v>7390920.20728198</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4922277.954710466</v>
+        <v>4922277.954710467</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>65.19007775725136</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T11" t="n">
         <v>210.1161913164022</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>258.9173391545523</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.713139123526</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I13" t="n">
         <v>72.26896432086183</v>
@@ -1578,25 +1578,25 @@
         <v>6.943533196782496</v>
       </c>
       <c r="S13" t="n">
-        <v>153.0757232160747</v>
+        <v>77.95091052459574</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.4934623530684</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>398.3310518139933</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>73.73919472419243</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>161.438231275696</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,10 +1779,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.713139123526</v>
+        <v>99.04063626412751</v>
       </c>
       <c r="H16" t="n">
-        <v>82.79098916786383</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.0757232160747</v>
@@ -1821,16 +1821,16 @@
         <v>237.1405668778449</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,10 +1846,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>398.3310518139933</v>
       </c>
       <c r="H17" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.55484356332865</v>
+        <v>52.05320585494192</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>75.39022598808836</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>65.34209054852695</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>72.26896432086183</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T19" t="n">
         <v>237.1405668778449</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>82.22387422914159</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>155.8656397598254</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.6141907117556</v>
@@ -2143,10 +2143,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>138.2157868297378</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T21" t="n">
         <v>136.2242063313587</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.943533196782496</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S22" t="n">
-        <v>153.0757232160747</v>
+        <v>114.7306527193227</v>
       </c>
       <c r="T22" t="n">
         <v>237.1405668778449</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.44040311637256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>210.1161913164022</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6141907117556</v>
+        <v>116.6574464798846</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>102.8833877123667</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45297472175166</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>153.0757232160747</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1405668778449</v>
+        <v>170.3086334860608</v>
       </c>
       <c r="U25" t="n">
         <v>277.3345352391432</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>339.5323478259755</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>235.4259159249477</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.3310518139933</v>
       </c>
       <c r="H26" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5.32734992238978</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T28" t="n">
-        <v>163.2554192825903</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U28" t="n">
         <v>277.3345352391432</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H29" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>154.8776090056566</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>8.673724932886461</v>
       </c>
     </row>
     <row r="30">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.713139123526</v>
@@ -2970,7 +2970,7 @@
         <v>134.5230953913808</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>247.9216485074161</v>
+        <v>245.6477852920219</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4.876451499582918</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H32" t="n">
         <v>274.7695304478259</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T32" t="n">
         <v>210.1161913164022</v>
@@ -3088,13 +3088,13 @@
         <v>255.6141907117556</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>140.7095884828394</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H34" t="n">
         <v>134.5230953913808</v>
       </c>
       <c r="I34" t="n">
-        <v>16.93644455030098</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3345352391432</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>79.66378827144706</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>367.5526840974243</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7499531567788</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>119.058427044695</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1405668778449</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>274.0540032331107</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>70.5095593845905</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>59.61748624138034</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3675,10 +3675,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H40" t="n">
-        <v>102.6081455846556</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.60240335899328</v>
       </c>
       <c r="T40" t="n">
         <v>237.1405668778449</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1161913164022</v>
+        <v>116.8777924402806</v>
       </c>
       <c r="U41" t="n">
-        <v>230.6287484675432</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>163.713139123526</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>237.1405668778449</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>96.49759705302209</v>
       </c>
       <c r="W43" t="n">
-        <v>192.1267209536073</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>34.92386437886327</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.3310518139933</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6141907117556</v>
+        <v>87.00933587275627</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>61.1111604467532</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S46" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U46" t="n">
         <v>277.3345352391432</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>166.6682297989539</v>
       </c>
     </row>
   </sheetData>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1639.038732329157</v>
+        <v>1318.359759886853</v>
       </c>
       <c r="C11" t="n">
-        <v>1639.038732329157</v>
+        <v>891.4590299001527</v>
       </c>
       <c r="D11" t="n">
-        <v>1573.190168937994</v>
+        <v>468.166409085153</v>
       </c>
       <c r="E11" t="n">
-        <v>1147.213229085852</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="F11" t="n">
-        <v>722.0890472752521</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G11" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18946923301058</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I11" t="n">
-        <v>82.97064708758398</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J11" t="n">
-        <v>218.9221049399282</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K11" t="n">
-        <v>430.9231076957185</v>
+        <v>430.9231076957181</v>
       </c>
       <c r="L11" t="n">
-        <v>699.9256343271986</v>
+        <v>699.9256343271982</v>
       </c>
       <c r="M11" t="n">
-        <v>1004.38906002729</v>
+        <v>1004.389060027289</v>
       </c>
       <c r="N11" t="n">
         <v>1314.52876612348</v>
@@ -5065,28 +5065,28 @@
         <v>2021.979826295251</v>
       </c>
       <c r="R11" t="n">
-        <v>2109.473461650529</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.473461650529</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T11" t="n">
-        <v>1897.234884563254</v>
+        <v>1838.088577933628</v>
       </c>
       <c r="U11" t="n">
-        <v>1639.038732329157</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="V11" t="n">
-        <v>1639.038732329157</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="W11" t="n">
-        <v>1639.038732329157</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="X11" t="n">
-        <v>1639.038732329157</v>
+        <v>1318.359759886853</v>
       </c>
       <c r="Y11" t="n">
-        <v>1639.038732329157</v>
+        <v>1318.359759886853</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G12" t="n">
-        <v>85.31098196411675</v>
+        <v>85.31098196411673</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18946923301058</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I12" t="n">
         <v>85.46560251410961</v>
@@ -5123,25 +5123,25 @@
         <v>163.3794593197289</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7128958003935</v>
+        <v>309.2468095548581</v>
       </c>
       <c r="L12" t="n">
-        <v>666.3769622783205</v>
+        <v>512.9108760327852</v>
       </c>
       <c r="M12" t="n">
-        <v>907.1888127226373</v>
+        <v>753.7227264771019</v>
       </c>
       <c r="N12" t="n">
-        <v>1156.715641088999</v>
+        <v>1003.249554843464</v>
       </c>
       <c r="O12" t="n">
-        <v>1381.373223301572</v>
+        <v>1227.907137056037</v>
       </c>
       <c r="P12" t="n">
-        <v>1558.539115924941</v>
+        <v>1405.073029679406</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.857953910524</v>
+        <v>1774.31345419543</v>
       </c>
       <c r="R12" t="n">
         <v>1815.489017493114</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.0527721294076</v>
+        <v>1089.796460891595</v>
       </c>
       <c r="C13" t="n">
-        <v>610.0802090083235</v>
+        <v>917.8238977705115</v>
       </c>
       <c r="D13" t="n">
-        <v>446.7634361350943</v>
+        <v>754.5071248972822</v>
       </c>
       <c r="E13" t="n">
-        <v>280.5552302879478</v>
+        <v>588.2989190501357</v>
       </c>
       <c r="F13" t="n">
-        <v>280.5552302879478</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="G13" t="n">
-        <v>115.188423092467</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="H13" t="n">
         <v>115.188423092467</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18946923301058</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="J13" t="n">
         <v>161.3628905938623</v>
@@ -5217,34 +5217,34 @@
         <v>1731.39978668298</v>
       </c>
       <c r="P13" t="n">
-        <v>1909.417685288887</v>
+        <v>1909.417685288886</v>
       </c>
       <c r="Q13" t="n">
-        <v>2109.473461650529</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="R13" t="n">
         <v>2102.459791754789</v>
       </c>
       <c r="S13" t="n">
-        <v>1947.837849112289</v>
+        <v>2023.721498295601</v>
       </c>
       <c r="T13" t="n">
-        <v>1708.301922973052</v>
+        <v>2023.721498295601</v>
       </c>
       <c r="U13" t="n">
-        <v>1428.166028792099</v>
+        <v>2023.721498295601</v>
       </c>
       <c r="V13" t="n">
-        <v>1146.454561400128</v>
+        <v>2023.721498295601</v>
       </c>
       <c r="W13" t="n">
-        <v>972.2187408414732</v>
+        <v>1748.869094468114</v>
       </c>
       <c r="X13" t="n">
-        <v>972.2187408414732</v>
+        <v>1506.305197913919</v>
       </c>
       <c r="Y13" t="n">
-        <v>972.2187408414732</v>
+        <v>1279.962429603661</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>722.0890472752521</v>
+        <v>1570.505849900852</v>
       </c>
       <c r="C14" t="n">
-        <v>722.0890472752521</v>
+        <v>1570.505849900852</v>
       </c>
       <c r="D14" t="n">
-        <v>722.0890472752521</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="E14" t="n">
-        <v>722.0890472752521</v>
+        <v>1147.213229085852</v>
       </c>
       <c r="F14" t="n">
         <v>722.0890472752521</v>
@@ -5275,16 +5275,16 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I14" t="n">
-        <v>82.97064708758353</v>
+        <v>82.97064708758364</v>
       </c>
       <c r="J14" t="n">
-        <v>218.9221049399275</v>
+        <v>218.9221049399276</v>
       </c>
       <c r="K14" t="n">
-        <v>430.9231076957179</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L14" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271982</v>
       </c>
       <c r="M14" t="n">
         <v>1004.389060027289</v>
@@ -5305,25 +5305,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S14" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T14" t="n">
-        <v>1897.234884563253</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="U14" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="V14" t="n">
-        <v>1281.549317455406</v>
+        <v>1975.843119945961</v>
       </c>
       <c r="W14" t="n">
-        <v>885.1579677557531</v>
+        <v>1975.843119945961</v>
       </c>
       <c r="X14" t="n">
-        <v>722.0890472752521</v>
+        <v>1975.843119945961</v>
       </c>
       <c r="Y14" t="n">
-        <v>722.0890472752521</v>
+        <v>1570.505849900852</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I15" t="n">
-        <v>85.46560251410961</v>
+        <v>62.00829666969776</v>
       </c>
       <c r="J15" t="n">
-        <v>316.8455455652643</v>
+        <v>422.3010458501699</v>
       </c>
       <c r="K15" t="n">
-        <v>462.7128958003935</v>
+        <v>568.1683960852992</v>
       </c>
       <c r="L15" t="n">
-        <v>666.3769622783205</v>
+        <v>771.8324625632262</v>
       </c>
       <c r="M15" t="n">
-        <v>907.1888127226373</v>
+        <v>1012.644313007543</v>
       </c>
       <c r="N15" t="n">
-        <v>1156.715641088999</v>
+        <v>1262.171141373905</v>
       </c>
       <c r="O15" t="n">
-        <v>1381.373223301572</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P15" t="n">
-        <v>1558.539115924941</v>
+        <v>1663.994616209847</v>
       </c>
       <c r="Q15" t="n">
-        <v>1668.857953910524</v>
+        <v>1774.31345419543</v>
       </c>
       <c r="R15" t="n">
         <v>1815.489017493114</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.5428542811119</v>
+        <v>652.2730591581226</v>
       </c>
       <c r="C16" t="n">
-        <v>792.5702911600279</v>
+        <v>480.3004960370386</v>
       </c>
       <c r="D16" t="n">
-        <v>629.2535182867986</v>
+        <v>480.3004960370386</v>
       </c>
       <c r="E16" t="n">
-        <v>463.0453124396521</v>
+        <v>314.0922901898921</v>
       </c>
       <c r="F16" t="n">
-        <v>291.1835382142125</v>
+        <v>142.2305159644525</v>
       </c>
       <c r="G16" t="n">
-        <v>125.8167310187316</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H16" t="n">
         <v>42.18946923301057</v>
@@ -5436,22 +5436,22 @@
         <v>42.18946923301057</v>
       </c>
       <c r="J16" t="n">
-        <v>161.3628905938623</v>
+        <v>125.5994133135854</v>
       </c>
       <c r="K16" t="n">
-        <v>489.2531188135795</v>
+        <v>206.2070324192806</v>
       </c>
       <c r="L16" t="n">
-        <v>777.1957673410258</v>
+        <v>314.2167247692497</v>
       </c>
       <c r="M16" t="n">
-        <v>1299.290449099532</v>
+        <v>836.3114065277555</v>
       </c>
       <c r="N16" t="n">
-        <v>1412.257417456429</v>
+        <v>1347.311297726533</v>
       </c>
       <c r="O16" t="n">
-        <v>1513.299820018577</v>
+        <v>1826.056024591884</v>
       </c>
       <c r="P16" t="n">
         <v>1909.417685288886</v>
@@ -5460,28 +5460,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R16" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S16" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T16" t="n">
-        <v>1708.301922973052</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U16" t="n">
-        <v>1708.301922973052</v>
+        <v>1435.179698687839</v>
       </c>
       <c r="V16" t="n">
-        <v>1708.301922973052</v>
+        <v>1153.468231295868</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.449519145565</v>
+        <v>878.6158274683805</v>
       </c>
       <c r="X16" t="n">
-        <v>1190.88562259137</v>
+        <v>878.6158274683805</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.5428542811119</v>
+        <v>652.2730591581226</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1148.989777261952</v>
+        <v>867.8366878399227</v>
       </c>
       <c r="C17" t="n">
-        <v>722.0890472752521</v>
+        <v>867.8366878399227</v>
       </c>
       <c r="D17" t="n">
-        <v>722.0890472752521</v>
+        <v>444.544067024923</v>
       </c>
       <c r="E17" t="n">
-        <v>722.0890472752521</v>
+        <v>444.544067024923</v>
       </c>
       <c r="F17" t="n">
-        <v>722.0890472752521</v>
+        <v>444.544067024923</v>
       </c>
       <c r="G17" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H17" t="n">
         <v>42.18946923301057</v>
@@ -5542,25 +5542,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S17" t="n">
-        <v>2050.327155020903</v>
+        <v>2056.894465837456</v>
       </c>
       <c r="T17" t="n">
-        <v>2050.327155020903</v>
+        <v>2056.894465837456</v>
       </c>
       <c r="U17" t="n">
-        <v>1974.175411598592</v>
+        <v>2056.894465837456</v>
       </c>
       <c r="V17" t="n">
-        <v>1974.175411598592</v>
+        <v>1699.405050963705</v>
       </c>
       <c r="W17" t="n">
-        <v>1974.175411598592</v>
+        <v>1699.405050963705</v>
       </c>
       <c r="X17" t="n">
-        <v>1974.175411598592</v>
+        <v>1287.685052131453</v>
       </c>
       <c r="Y17" t="n">
-        <v>1568.838141553482</v>
+        <v>1287.685052131453</v>
       </c>
     </row>
     <row r="18">
@@ -5597,7 +5597,7 @@
         <v>163.3794593197289</v>
       </c>
       <c r="K18" t="n">
-        <v>309.2468095548581</v>
+        <v>568.1683960852992</v>
       </c>
       <c r="L18" t="n">
         <v>771.8324625632262</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>654.3010307153145</v>
+        <v>788.5477391593663</v>
       </c>
       <c r="C19" t="n">
-        <v>654.3010307153145</v>
+        <v>616.5751760382823</v>
       </c>
       <c r="D19" t="n">
-        <v>654.3010307153145</v>
+        <v>453.258403165053</v>
       </c>
       <c r="E19" t="n">
-        <v>588.2989190501357</v>
+        <v>287.0501973179065</v>
       </c>
       <c r="F19" t="n">
-        <v>416.4371448246962</v>
+        <v>115.188423092467</v>
       </c>
       <c r="G19" t="n">
-        <v>251.0703376292153</v>
+        <v>115.188423092467</v>
       </c>
       <c r="H19" t="n">
         <v>115.188423092467</v>
@@ -5682,43 +5682,43 @@
         <v>895.7299881064928</v>
       </c>
       <c r="M19" t="n">
-        <v>1010.140535602993</v>
+        <v>1365.387228208858</v>
       </c>
       <c r="N19" t="n">
-        <v>1123.107503959891</v>
+        <v>1876.387119407636</v>
       </c>
       <c r="O19" t="n">
-        <v>1601.852230825242</v>
+        <v>1977.429521969783</v>
       </c>
       <c r="P19" t="n">
-        <v>1997.970096095551</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q19" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="R19" t="n">
-        <v>2109.473461650528</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="S19" t="n">
-        <v>2109.473461650528</v>
+        <v>1947.837849112289</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.937535511291</v>
+        <v>1708.301922973052</v>
       </c>
       <c r="U19" t="n">
-        <v>1869.937535511291</v>
+        <v>1428.166028792099</v>
       </c>
       <c r="V19" t="n">
-        <v>1588.22606811932</v>
+        <v>1146.454561400128</v>
       </c>
       <c r="W19" t="n">
-        <v>1313.373664291833</v>
+        <v>871.6021575726406</v>
       </c>
       <c r="X19" t="n">
-        <v>1070.809767737638</v>
+        <v>788.5477391593663</v>
       </c>
       <c r="Y19" t="n">
-        <v>844.4669994273802</v>
+        <v>788.5477391593663</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>722.0890472752521</v>
+        <v>626.5302393811503</v>
       </c>
       <c r="C20" t="n">
-        <v>722.0890472752521</v>
+        <v>199.6295093944504</v>
       </c>
       <c r="D20" t="n">
-        <v>722.0890472752521</v>
+        <v>199.6295093944504</v>
       </c>
       <c r="E20" t="n">
-        <v>722.0890472752521</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="F20" t="n">
-        <v>722.0890472752521</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G20" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H20" t="n">
         <v>42.18946923301057</v>
@@ -5752,19 +5752,19 @@
         <v>82.97064708758364</v>
       </c>
       <c r="J20" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K20" t="n">
         <v>430.923107695718</v>
       </c>
       <c r="L20" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271979</v>
       </c>
       <c r="M20" t="n">
         <v>1004.389060027289</v>
       </c>
       <c r="N20" t="n">
-        <v>1314.52876612348</v>
+        <v>1314.528766123479</v>
       </c>
       <c r="O20" t="n">
         <v>1605.217916110744</v>
@@ -5773,31 +5773,31 @@
         <v>1847.70796765412</v>
       </c>
       <c r="Q20" t="n">
-        <v>2021.979826295251</v>
+        <v>2021.97982629525</v>
       </c>
       <c r="R20" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T20" t="n">
-        <v>1897.234884563253</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="U20" t="n">
-        <v>1639.038732329157</v>
+        <v>1792.131002786807</v>
       </c>
       <c r="V20" t="n">
-        <v>1281.549317455406</v>
+        <v>1434.641587913056</v>
       </c>
       <c r="W20" t="n">
-        <v>1141.937411566782</v>
+        <v>1038.250238213403</v>
       </c>
       <c r="X20" t="n">
-        <v>1141.937411566782</v>
+        <v>626.5302393811503</v>
       </c>
       <c r="Y20" t="n">
-        <v>1141.937411566782</v>
+        <v>626.5302393811503</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>85.46560251410961</v>
       </c>
       <c r="J21" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652636</v>
       </c>
       <c r="K21" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003929</v>
       </c>
       <c r="L21" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783199</v>
       </c>
       <c r="M21" t="n">
-        <v>907.1888127226373</v>
+        <v>907.1888127226367</v>
       </c>
       <c r="N21" t="n">
         <v>1156.715641088999</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.7348235271603</v>
+        <v>752.4570905750306</v>
       </c>
       <c r="C22" t="n">
-        <v>542.7348235271603</v>
+        <v>752.4570905750306</v>
       </c>
       <c r="D22" t="n">
-        <v>379.418050653931</v>
+        <v>589.1403177018013</v>
       </c>
       <c r="E22" t="n">
-        <v>379.418050653931</v>
+        <v>422.9321118546549</v>
       </c>
       <c r="F22" t="n">
-        <v>207.5562764284915</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18946923301057</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18946923301057</v>
+        <v>115.1884230924669</v>
       </c>
       <c r="I22" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="J22" t="n">
-        <v>83.44117394564142</v>
+        <v>83.44117394564144</v>
       </c>
       <c r="K22" t="n">
-        <v>164.0487930513366</v>
+        <v>411.3314021653587</v>
       </c>
       <c r="L22" t="n">
-        <v>648.4473789924707</v>
+        <v>895.7299881064928</v>
       </c>
       <c r="M22" t="n">
-        <v>762.8579264889713</v>
+        <v>1010.140535602993</v>
       </c>
       <c r="N22" t="n">
-        <v>1273.857817687749</v>
+        <v>1123.107503959891</v>
       </c>
       <c r="O22" t="n">
-        <v>1752.6025445531</v>
+        <v>1601.852230825242</v>
       </c>
       <c r="P22" t="n">
-        <v>2060.791182666785</v>
+        <v>1997.970096095552</v>
       </c>
       <c r="Q22" t="n">
         <v>2109.473461650528</v>
@@ -5937,25 +5937,25 @@
         <v>2102.459791754789</v>
       </c>
       <c r="S22" t="n">
-        <v>1947.837849112289</v>
+        <v>1986.570243553452</v>
       </c>
       <c r="T22" t="n">
-        <v>1708.301922973052</v>
+        <v>1747.034317414215</v>
       </c>
       <c r="U22" t="n">
-        <v>1428.166028792099</v>
+        <v>1466.898423233262</v>
       </c>
       <c r="V22" t="n">
-        <v>1146.454561400128</v>
+        <v>1185.186955841291</v>
       </c>
       <c r="W22" t="n">
-        <v>871.6021575726406</v>
+        <v>1185.186955841291</v>
       </c>
       <c r="X22" t="n">
-        <v>629.0382610184457</v>
+        <v>942.6230592870963</v>
       </c>
       <c r="Y22" t="n">
-        <v>542.7348235271603</v>
+        <v>942.6230592870963</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>722.0890472752521</v>
+        <v>895.0671390718529</v>
       </c>
       <c r="C23" t="n">
-        <v>722.0890472752521</v>
+        <v>468.166409085153</v>
       </c>
       <c r="D23" t="n">
-        <v>722.0890472752521</v>
+        <v>468.166409085153</v>
       </c>
       <c r="E23" t="n">
-        <v>722.0890472752521</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="F23" t="n">
-        <v>722.0890472752521</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G23" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H23" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I23" t="n">
-        <v>82.97064708758361</v>
+        <v>82.97064708758364</v>
       </c>
       <c r="J23" t="n">
         <v>218.9221049399276</v>
       </c>
       <c r="K23" t="n">
-        <v>430.9231076957178</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L23" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271981</v>
       </c>
       <c r="M23" t="n">
         <v>1004.389060027289</v>
       </c>
       <c r="N23" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.52876612348</v>
       </c>
       <c r="O23" t="n">
-        <v>1605.217916110743</v>
+        <v>1605.217916110744</v>
       </c>
       <c r="P23" t="n">
-        <v>1847.707967654119</v>
+        <v>1847.70796765412</v>
       </c>
       <c r="Q23" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R23" t="n">
         <v>2109.473461650528</v>
@@ -6022,19 +6022,19 @@
         <v>1838.088577933628</v>
       </c>
       <c r="U23" t="n">
-        <v>1579.892425699531</v>
+        <v>1720.252773408492</v>
       </c>
       <c r="V23" t="n">
-        <v>1222.403010825781</v>
+        <v>1720.252773408492</v>
       </c>
       <c r="W23" t="n">
-        <v>826.0116611261276</v>
+        <v>1720.252773408492</v>
       </c>
       <c r="X23" t="n">
-        <v>722.0890472752521</v>
+        <v>1720.252773408492</v>
       </c>
       <c r="Y23" t="n">
-        <v>722.0890472752521</v>
+        <v>1314.915503363383</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>85.31098196411673</v>
       </c>
       <c r="H24" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I24" t="n">
-        <v>85.46560251410959</v>
+        <v>85.46560251410961</v>
       </c>
       <c r="J24" t="n">
         <v>163.3794593197289</v>
@@ -6080,13 +6080,13 @@
         <v>753.7227264771019</v>
       </c>
       <c r="N24" t="n">
-        <v>1156.715641088999</v>
+        <v>1003.249554843464</v>
       </c>
       <c r="O24" t="n">
-        <v>1381.373223301572</v>
+        <v>1227.907137056037</v>
       </c>
       <c r="P24" t="n">
-        <v>1558.539115924941</v>
+        <v>1405.073029679406</v>
       </c>
       <c r="Q24" t="n">
         <v>1668.857953910524</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>878.6158274683801</v>
+        <v>287.0501973179065</v>
       </c>
       <c r="C25" t="n">
-        <v>878.6158274683801</v>
+        <v>287.0501973179065</v>
       </c>
       <c r="D25" t="n">
-        <v>715.2990545951508</v>
+        <v>287.0501973179065</v>
       </c>
       <c r="E25" t="n">
-        <v>549.0908487480043</v>
+        <v>287.0501973179065</v>
       </c>
       <c r="F25" t="n">
-        <v>377.2290745225647</v>
+        <v>115.188423092467</v>
       </c>
       <c r="G25" t="n">
-        <v>211.8622673270838</v>
+        <v>115.188423092467</v>
       </c>
       <c r="H25" t="n">
-        <v>75.98035279033547</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I25" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="J25" t="n">
-        <v>83.44117394564142</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K25" t="n">
-        <v>164.0487930513366</v>
+        <v>489.2531188135795</v>
       </c>
       <c r="L25" t="n">
-        <v>272.0584854013057</v>
+        <v>597.2628111635486</v>
       </c>
       <c r="M25" t="n">
-        <v>794.1531671598113</v>
+        <v>1119.357492922054</v>
       </c>
       <c r="N25" t="n">
-        <v>1305.153058358589</v>
+        <v>1232.324461278952</v>
       </c>
       <c r="O25" t="n">
-        <v>1664.673317396475</v>
+        <v>1513.299820018577</v>
       </c>
       <c r="P25" t="n">
-        <v>2060.791182666785</v>
+        <v>1909.417685288886</v>
       </c>
       <c r="Q25" t="n">
         <v>2109.473461650528</v>
@@ -6174,25 +6174,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S25" t="n">
-        <v>1954.851519008028</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.315592868791</v>
+        <v>1782.822596294836</v>
       </c>
       <c r="U25" t="n">
-        <v>1435.179698687838</v>
+        <v>1502.686702113883</v>
       </c>
       <c r="V25" t="n">
-        <v>1153.468231295867</v>
+        <v>1220.975234721912</v>
       </c>
       <c r="W25" t="n">
-        <v>878.6158274683801</v>
+        <v>946.1228308944251</v>
       </c>
       <c r="X25" t="n">
-        <v>878.6158274683801</v>
+        <v>703.5589343402302</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.6158274683801</v>
+        <v>477.2161660299722</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1386.793732741697</v>
+        <v>1295.645188687665</v>
       </c>
       <c r="C26" t="n">
-        <v>959.8930027549973</v>
+        <v>1295.645188687665</v>
       </c>
       <c r="D26" t="n">
-        <v>959.8930027549973</v>
+        <v>1295.645188687665</v>
       </c>
       <c r="E26" t="n">
-        <v>959.8930027549973</v>
+        <v>869.6682488355227</v>
       </c>
       <c r="F26" t="n">
-        <v>722.0890472752521</v>
+        <v>444.544067024923</v>
       </c>
       <c r="G26" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H26" t="n">
         <v>42.18946923301057</v>
@@ -6229,10 +6229,10 @@
         <v>218.9221049399277</v>
       </c>
       <c r="K26" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L26" t="n">
-        <v>699.9256343271982</v>
+        <v>699.9256343271984</v>
       </c>
       <c r="M26" t="n">
         <v>1004.389060027289</v>
@@ -6259,19 +6259,19 @@
         <v>2050.327155020903</v>
       </c>
       <c r="U26" t="n">
-        <v>1792.131002786807</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="V26" t="n">
-        <v>1792.131002786807</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="W26" t="n">
-        <v>1792.131002786807</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="X26" t="n">
-        <v>1792.131002786807</v>
+        <v>1638.607156188651</v>
       </c>
       <c r="Y26" t="n">
-        <v>1386.793732741697</v>
+        <v>1638.607156188651</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I27" t="n">
-        <v>85.46560251410961</v>
+        <v>62.00829666969776</v>
       </c>
       <c r="J27" t="n">
-        <v>163.3794593197289</v>
+        <v>422.3010458501699</v>
       </c>
       <c r="K27" t="n">
-        <v>309.2468095548581</v>
+        <v>568.1683960852992</v>
       </c>
       <c r="L27" t="n">
-        <v>512.9108760327852</v>
+        <v>771.8324625632262</v>
       </c>
       <c r="M27" t="n">
-        <v>753.7227264771019</v>
+        <v>1012.644313007543</v>
       </c>
       <c r="N27" t="n">
-        <v>1003.249554843464</v>
+        <v>1262.171141373905</v>
       </c>
       <c r="O27" t="n">
-        <v>1227.907137056037</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P27" t="n">
-        <v>1405.073029679406</v>
+        <v>1663.994616209847</v>
       </c>
       <c r="Q27" t="n">
         <v>1774.31345419543</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>287.1609862135509</v>
+        <v>219.543193891862</v>
       </c>
       <c r="C28" t="n">
-        <v>115.188423092467</v>
+        <v>47.57063077077802</v>
       </c>
       <c r="D28" t="n">
-        <v>115.188423092467</v>
+        <v>47.57063077077802</v>
       </c>
       <c r="E28" t="n">
-        <v>115.188423092467</v>
+        <v>47.57063077077802</v>
       </c>
       <c r="F28" t="n">
-        <v>115.188423092467</v>
+        <v>47.57063077077802</v>
       </c>
       <c r="G28" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H28" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I28" t="n">
         <v>42.18946923301057</v>
@@ -6390,16 +6390,16 @@
         <v>241.9705096995575</v>
       </c>
       <c r="L28" t="n">
-        <v>726.3690956406915</v>
+        <v>349.9802020495266</v>
       </c>
       <c r="M28" t="n">
-        <v>840.7796431371921</v>
+        <v>836.3114065277555</v>
       </c>
       <c r="N28" t="n">
-        <v>1034.555093153226</v>
+        <v>1347.311297726533</v>
       </c>
       <c r="O28" t="n">
-        <v>1513.299820018577</v>
+        <v>1826.056024591884</v>
       </c>
       <c r="P28" t="n">
         <v>1909.417685288886</v>
@@ -6408,28 +6408,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R28" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S28" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T28" t="n">
-        <v>1782.933385190481</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U28" t="n">
-        <v>1502.797491009528</v>
+        <v>1435.179698687839</v>
       </c>
       <c r="V28" t="n">
-        <v>1221.086023617557</v>
+        <v>1153.468231295868</v>
       </c>
       <c r="W28" t="n">
-        <v>946.2336197900695</v>
+        <v>878.6158274683805</v>
       </c>
       <c r="X28" t="n">
-        <v>703.6697232358746</v>
+        <v>636.0519309141856</v>
       </c>
       <c r="Y28" t="n">
-        <v>477.3269549256166</v>
+        <v>409.7091626039277</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>319.7344494833398</v>
+        <v>867.8366878399227</v>
       </c>
       <c r="C29" t="n">
-        <v>319.7344494833398</v>
+        <v>867.8366878399227</v>
       </c>
       <c r="D29" t="n">
-        <v>319.7344494833398</v>
+        <v>444.544067024923</v>
       </c>
       <c r="E29" t="n">
-        <v>319.7344494833398</v>
+        <v>444.544067024923</v>
       </c>
       <c r="F29" t="n">
-        <v>319.7344494833398</v>
+        <v>444.544067024923</v>
       </c>
       <c r="G29" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H29" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="I29" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J29" t="n">
-        <v>218.9221049399281</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K29" t="n">
-        <v>430.9231076957185</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L29" t="n">
-        <v>699.9256343271985</v>
+        <v>699.9256343271982</v>
       </c>
       <c r="M29" t="n">
-        <v>1004.38906002729</v>
+        <v>1004.389060027289</v>
       </c>
       <c r="N29" t="n">
         <v>1314.52876612348</v>
@@ -6490,25 +6490,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S29" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T29" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="U29" t="n">
-        <v>1953.031432351885</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="V29" t="n">
-        <v>1953.031432351885</v>
+        <v>1692.837740147153</v>
       </c>
       <c r="W29" t="n">
-        <v>1556.640082652232</v>
+        <v>1296.4463904475</v>
       </c>
       <c r="X29" t="n">
-        <v>1144.920083819979</v>
+        <v>1296.4463904475</v>
       </c>
       <c r="Y29" t="n">
-        <v>739.5828137748699</v>
+        <v>1287.685052131453</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I30" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410961</v>
       </c>
       <c r="J30" t="n">
-        <v>139.922153475317</v>
+        <v>316.8455455652643</v>
       </c>
       <c r="K30" t="n">
-        <v>285.7895037104463</v>
+        <v>462.7128958003935</v>
       </c>
       <c r="L30" t="n">
-        <v>489.4535701883733</v>
+        <v>666.3769622783205</v>
       </c>
       <c r="M30" t="n">
-        <v>730.2654206326901</v>
+        <v>907.1888127226373</v>
       </c>
       <c r="N30" t="n">
-        <v>979.7922489990522</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O30" t="n">
-        <v>1204.449831211625</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P30" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R30" t="n">
         <v>1815.489017493114</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>678.7275269595531</v>
+        <v>923.5882550444491</v>
       </c>
       <c r="C31" t="n">
-        <v>506.7549638384691</v>
+        <v>751.615691923365</v>
       </c>
       <c r="D31" t="n">
-        <v>343.4381909652398</v>
+        <v>588.2989190501357</v>
       </c>
       <c r="E31" t="n">
-        <v>343.4381909652398</v>
+        <v>588.2989190501357</v>
       </c>
       <c r="F31" t="n">
-        <v>343.4381909652398</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="G31" t="n">
-        <v>178.0713837697589</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="H31" t="n">
-        <v>42.18946923301057</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I31" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="J31" t="n">
-        <v>116.2804505580734</v>
+        <v>83.44117394564142</v>
       </c>
       <c r="K31" t="n">
-        <v>444.1706787777907</v>
+        <v>164.0487930513366</v>
       </c>
       <c r="L31" t="n">
-        <v>928.5692647189247</v>
+        <v>272.0584854013057</v>
       </c>
       <c r="M31" t="n">
-        <v>1450.66394647743</v>
+        <v>794.1531671598115</v>
       </c>
       <c r="N31" t="n">
-        <v>1563.630914834328</v>
+        <v>1305.15305835859</v>
       </c>
       <c r="O31" t="n">
-        <v>1664.673317396476</v>
+        <v>1783.89778522394</v>
       </c>
       <c r="P31" t="n">
         <v>2060.791182666785</v>
@@ -6660,13 +6660,13 @@
         <v>1588.22606811932</v>
       </c>
       <c r="W31" t="n">
-        <v>1337.800160536071</v>
+        <v>1340.096992066773</v>
       </c>
       <c r="X31" t="n">
-        <v>1095.236263981877</v>
+        <v>1340.096992066773</v>
       </c>
       <c r="Y31" t="n">
-        <v>868.8934956716187</v>
+        <v>1113.754223756515</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>743.0270702983396</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="C32" t="n">
-        <v>743.0270702983396</v>
+        <v>1152.991695712832</v>
       </c>
       <c r="D32" t="n">
-        <v>319.7344494833398</v>
+        <v>1152.991695712832</v>
       </c>
       <c r="E32" t="n">
-        <v>319.7344494833398</v>
+        <v>727.0147558606894</v>
       </c>
       <c r="F32" t="n">
-        <v>319.7344494833398</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="G32" t="n">
         <v>319.7344494833398</v>
@@ -6697,16 +6697,16 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I32" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J32" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399275</v>
       </c>
       <c r="K32" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957179</v>
       </c>
       <c r="L32" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271979</v>
       </c>
       <c r="M32" t="n">
         <v>1004.389060027289</v>
@@ -6727,25 +6727,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S32" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T32" t="n">
-        <v>1897.234884563253</v>
+        <v>1838.088577933628</v>
       </c>
       <c r="U32" t="n">
-        <v>1639.038732329157</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="V32" t="n">
-        <v>1281.549317455406</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="W32" t="n">
-        <v>885.1579677557531</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="X32" t="n">
-        <v>743.0270702983396</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="Y32" t="n">
-        <v>743.0270702983396</v>
+        <v>1579.892425699532</v>
       </c>
     </row>
     <row r="33">
@@ -6779,13 +6779,13 @@
         <v>85.46560251410961</v>
       </c>
       <c r="J33" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652643</v>
       </c>
       <c r="K33" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003935</v>
       </c>
       <c r="L33" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783205</v>
       </c>
       <c r="M33" t="n">
         <v>907.1888127226373</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>367.1514666386217</v>
+        <v>1089.796460891595</v>
       </c>
       <c r="C34" t="n">
-        <v>195.1789035175377</v>
+        <v>917.8238977705115</v>
       </c>
       <c r="D34" t="n">
-        <v>195.1789035175377</v>
+        <v>754.5071248972822</v>
       </c>
       <c r="E34" t="n">
-        <v>195.1789035175377</v>
+        <v>588.2989190501357</v>
       </c>
       <c r="F34" t="n">
-        <v>195.1789035175377</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="G34" t="n">
-        <v>195.1789035175377</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="H34" t="n">
-        <v>59.29698898078934</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I34" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="J34" t="n">
-        <v>146.2622605168752</v>
+        <v>83.44117394564142</v>
       </c>
       <c r="K34" t="n">
-        <v>474.1524887365925</v>
+        <v>164.0487930513366</v>
       </c>
       <c r="L34" t="n">
-        <v>958.5510746777265</v>
+        <v>465.5902221471487</v>
       </c>
       <c r="M34" t="n">
-        <v>1072.961622174227</v>
+        <v>987.6849039056544</v>
       </c>
       <c r="N34" t="n">
-        <v>1185.928590531125</v>
+        <v>1498.684795104432</v>
       </c>
       <c r="O34" t="n">
-        <v>1664.673317396476</v>
+        <v>1977.429521969783</v>
       </c>
       <c r="P34" t="n">
         <v>2060.791182666785</v>
@@ -6882,28 +6882,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R34" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S34" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="T34" t="n">
-        <v>1862.923865615551</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="U34" t="n">
-        <v>1582.787971434598</v>
+        <v>1829.337567469576</v>
       </c>
       <c r="V34" t="n">
-        <v>1301.076504042627</v>
+        <v>1748.869094468114</v>
       </c>
       <c r="W34" t="n">
-        <v>1026.22410021514</v>
+        <v>1748.869094468114</v>
       </c>
       <c r="X34" t="n">
-        <v>783.6602036609453</v>
+        <v>1506.305197913919</v>
       </c>
       <c r="Y34" t="n">
-        <v>557.3174353506873</v>
+        <v>1279.962429603661</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>722.0890472752521</v>
+        <v>1689.625097358998</v>
       </c>
       <c r="C35" t="n">
-        <v>722.0890472752521</v>
+        <v>1262.724367372299</v>
       </c>
       <c r="D35" t="n">
-        <v>722.0890472752521</v>
+        <v>839.4317465572988</v>
       </c>
       <c r="E35" t="n">
-        <v>722.0890472752521</v>
+        <v>413.4548067051563</v>
       </c>
       <c r="F35" t="n">
-        <v>722.0890472752521</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G35" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H35" t="n">
         <v>42.18946923301057</v>
@@ -6967,22 +6967,22 @@
         <v>2109.473461650528</v>
       </c>
       <c r="T35" t="n">
-        <v>1897.234884563253</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="U35" t="n">
-        <v>1639.038732329157</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="V35" t="n">
-        <v>1530.200395807158</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="W35" t="n">
-        <v>1133.809046107505</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="X35" t="n">
-        <v>722.0890472752521</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="Y35" t="n">
-        <v>722.0890472752521</v>
+        <v>2109.473461650528</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>139.922153475317</v>
       </c>
       <c r="K36" t="n">
-        <v>285.7895037104463</v>
+        <v>568.1683960852992</v>
       </c>
       <c r="L36" t="n">
-        <v>489.4535701883733</v>
+        <v>771.8324625632262</v>
       </c>
       <c r="M36" t="n">
-        <v>730.2654206326901</v>
+        <v>1012.644313007543</v>
       </c>
       <c r="N36" t="n">
-        <v>979.7922489990522</v>
+        <v>1262.171141373905</v>
       </c>
       <c r="O36" t="n">
-        <v>1204.449831211625</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P36" t="n">
-        <v>1381.615723834994</v>
+        <v>1663.994616209847</v>
       </c>
       <c r="Q36" t="n">
         <v>1774.31345419543</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>499.6790880728149</v>
+        <v>377.4788052273238</v>
       </c>
       <c r="C37" t="n">
-        <v>379.418050653931</v>
+        <v>205.5062421062399</v>
       </c>
       <c r="D37" t="n">
-        <v>379.418050653931</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="E37" t="n">
-        <v>379.418050653931</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="F37" t="n">
-        <v>207.5562764284915</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G37" t="n">
         <v>42.18946923301057</v>
@@ -7098,22 +7098,22 @@
         <v>83.44117394564142</v>
       </c>
       <c r="K37" t="n">
-        <v>411.3314021653587</v>
+        <v>164.0487930513366</v>
       </c>
       <c r="L37" t="n">
-        <v>519.3410945153278</v>
+        <v>465.5902221471487</v>
       </c>
       <c r="M37" t="n">
-        <v>1041.435776273834</v>
+        <v>987.6849039056544</v>
       </c>
       <c r="N37" t="n">
-        <v>1412.257417456429</v>
+        <v>1498.684795104432</v>
       </c>
       <c r="O37" t="n">
-        <v>1513.299820018577</v>
+        <v>1977.429521969783</v>
       </c>
       <c r="P37" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q37" t="n">
         <v>2109.473461650528</v>
@@ -7122,25 +7122,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S37" t="n">
-        <v>1954.851519008029</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.315592868792</v>
+        <v>1869.937535511291</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.315592868792</v>
+        <v>1593.1153100233</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.60412547682</v>
+        <v>1311.403842631329</v>
       </c>
       <c r="W37" t="n">
-        <v>1158.751721649333</v>
+        <v>1036.551438803842</v>
       </c>
       <c r="X37" t="n">
-        <v>916.1878250951385</v>
+        <v>793.9875422496475</v>
       </c>
       <c r="Y37" t="n">
-        <v>689.8450567848805</v>
+        <v>567.6447739393896</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.3136510436104</v>
+        <v>1320.191320882453</v>
       </c>
       <c r="C38" t="n">
-        <v>467.3136510436104</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="D38" t="n">
-        <v>467.3136510436104</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E38" t="n">
         <v>467.3136510436104</v>
@@ -7201,25 +7201,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S38" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T38" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="U38" t="n">
-        <v>2038.251684494376</v>
+        <v>1792.131002786807</v>
       </c>
       <c r="V38" t="n">
-        <v>1680.762269620626</v>
+        <v>1792.131002786807</v>
       </c>
       <c r="W38" t="n">
-        <v>1284.370919920973</v>
+        <v>1731.911319714705</v>
       </c>
       <c r="X38" t="n">
-        <v>872.65092108872</v>
+        <v>1320.191320882453</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.3136510436104</v>
+        <v>1320.191320882453</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>655.8766039263328</v>
+        <v>880.9155924953908</v>
       </c>
       <c r="C40" t="n">
-        <v>483.9040408052488</v>
+        <v>708.9430293743068</v>
       </c>
       <c r="D40" t="n">
-        <v>483.9040408052488</v>
+        <v>545.6262565010775</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6958349581023</v>
+        <v>379.418050653931</v>
       </c>
       <c r="F40" t="n">
-        <v>145.8340607326627</v>
+        <v>207.5562764284915</v>
       </c>
       <c r="G40" t="n">
-        <v>145.8340607326627</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H40" t="n">
         <v>42.18946923301057</v>
@@ -7332,19 +7332,19 @@
         <v>42.18946923301057</v>
       </c>
       <c r="J40" t="n">
-        <v>83.44117394564142</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K40" t="n">
-        <v>164.0487930513366</v>
+        <v>489.2531188135795</v>
       </c>
       <c r="L40" t="n">
-        <v>465.5902221471487</v>
+        <v>973.6517047547136</v>
       </c>
       <c r="M40" t="n">
-        <v>987.6849039056544</v>
+        <v>1365.387228208858</v>
       </c>
       <c r="N40" t="n">
-        <v>1498.684795104432</v>
+        <v>1876.387119407636</v>
       </c>
       <c r="O40" t="n">
         <v>1977.429521969783</v>
@@ -7356,28 +7356,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R40" t="n">
-        <v>2109.473461650528</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="S40" t="n">
-        <v>2109.473461650528</v>
+        <v>2054.376556038634</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.937535511291</v>
+        <v>1814.840629899396</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.801641330338</v>
+        <v>1814.840629899396</v>
       </c>
       <c r="V40" t="n">
-        <v>1589.801641330338</v>
+        <v>1814.840629899396</v>
       </c>
       <c r="W40" t="n">
-        <v>1314.949237502851</v>
+        <v>1539.988226071909</v>
       </c>
       <c r="X40" t="n">
-        <v>1072.385340948656</v>
+        <v>1297.424329517714</v>
       </c>
       <c r="Y40" t="n">
-        <v>846.0425726383985</v>
+        <v>1071.081561207456</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>895.0671390718529</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="C41" t="n">
-        <v>468.166409085153</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="D41" t="n">
-        <v>468.166409085153</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E41" t="n">
-        <v>42.18946923301057</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="F41" t="n">
         <v>42.18946923301057</v>
@@ -7438,25 +7438,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S41" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T41" t="n">
-        <v>1897.234884563253</v>
+        <v>1932.2687788186</v>
       </c>
       <c r="U41" t="n">
-        <v>1664.276552777856</v>
+        <v>1674.072626584503</v>
       </c>
       <c r="V41" t="n">
-        <v>1306.787137904106</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="W41" t="n">
-        <v>1306.787137904106</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="X41" t="n">
-        <v>895.0671390718529</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="Y41" t="n">
-        <v>895.0671390718529</v>
+        <v>1316.583211710752</v>
       </c>
     </row>
     <row r="42">
@@ -7490,7 +7490,7 @@
         <v>85.46560251410961</v>
       </c>
       <c r="J42" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652644</v>
       </c>
       <c r="K42" t="n">
         <v>462.7128958003936</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.797507032139</v>
+        <v>551.390613775015</v>
       </c>
       <c r="C43" t="n">
-        <v>844.8249439110551</v>
+        <v>379.418050653931</v>
       </c>
       <c r="D43" t="n">
-        <v>681.5081710378258</v>
+        <v>379.418050653931</v>
       </c>
       <c r="E43" t="n">
-        <v>515.2999651906794</v>
+        <v>379.418050653931</v>
       </c>
       <c r="F43" t="n">
-        <v>343.4381909652398</v>
+        <v>207.5562764284915</v>
       </c>
       <c r="G43" t="n">
-        <v>178.0713837697589</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H43" t="n">
         <v>42.18946923301057</v>
@@ -7575,16 +7575,16 @@
         <v>164.0487930513366</v>
       </c>
       <c r="L43" t="n">
-        <v>648.4473789924706</v>
+        <v>465.5902221471491</v>
       </c>
       <c r="M43" t="n">
-        <v>762.8579264889712</v>
+        <v>987.6849039056549</v>
       </c>
       <c r="N43" t="n">
-        <v>1273.857817687749</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O43" t="n">
-        <v>1664.673317396476</v>
+        <v>1977.429521969783</v>
       </c>
       <c r="P43" t="n">
         <v>2060.791182666785</v>
@@ -7593,28 +7593,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R43" t="n">
-        <v>2109.473461650528</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="S43" t="n">
-        <v>2109.473461650528</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="T43" t="n">
-        <v>1869.937535511291</v>
+        <v>1862.923865615551</v>
       </c>
       <c r="U43" t="n">
-        <v>1869.937535511291</v>
+        <v>1582.787971434598</v>
       </c>
       <c r="V43" t="n">
-        <v>1869.937535511291</v>
+        <v>1485.315651179021</v>
       </c>
       <c r="W43" t="n">
-        <v>1675.870140608657</v>
+        <v>1210.463247351533</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.306244054463</v>
+        <v>967.8993507973387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1206.963475744205</v>
+        <v>741.5565824870807</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>479.8206977106435</v>
+        <v>1145.381668090252</v>
       </c>
       <c r="C44" t="n">
-        <v>479.8206977106435</v>
+        <v>1145.381668090252</v>
       </c>
       <c r="D44" t="n">
-        <v>479.8206977106435</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8206977106435</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="F44" t="n">
-        <v>444.544067024923</v>
+        <v>722.0890472752521</v>
       </c>
       <c r="G44" t="n">
-        <v>42.18946923301057</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="H44" t="n">
         <v>42.18946923301057</v>
@@ -7657,43 +7657,43 @@
         <v>699.9256343271979</v>
       </c>
       <c r="M44" t="n">
-        <v>1004.38906002729</v>
+        <v>1004.389060027289</v>
       </c>
       <c r="N44" t="n">
-        <v>1314.52876612348</v>
+        <v>1314.528766123479</v>
       </c>
       <c r="O44" t="n">
-        <v>1605.217916110744</v>
+        <v>1605.217916110743</v>
       </c>
       <c r="P44" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654119</v>
       </c>
       <c r="Q44" t="n">
-        <v>2021.979826295251</v>
+        <v>2021.97982629525</v>
       </c>
       <c r="R44" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="S44" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T44" t="n">
-        <v>1897.234884563253</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="U44" t="n">
-        <v>1639.038732329157</v>
+        <v>1962.438936967614</v>
       </c>
       <c r="V44" t="n">
-        <v>1281.549317455406</v>
+        <v>1962.438936967614</v>
       </c>
       <c r="W44" t="n">
-        <v>885.1579677557531</v>
+        <v>1962.438936967614</v>
       </c>
       <c r="X44" t="n">
-        <v>885.1579677557531</v>
+        <v>1550.718938135361</v>
       </c>
       <c r="Y44" t="n">
-        <v>479.8206977106435</v>
+        <v>1145.381668090252</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>891.9810417375021</v>
+        <v>597.9965975800881</v>
       </c>
       <c r="C45" t="n">
-        <v>774.4751382550069</v>
+        <v>480.4906940975928</v>
       </c>
       <c r="D45" t="n">
-        <v>670.6351797702919</v>
+        <v>376.6507356128779</v>
       </c>
       <c r="E45" t="n">
-        <v>565.9332460432291</v>
+        <v>271.9488018858151</v>
       </c>
       <c r="F45" t="n">
-        <v>472.2874157261333</v>
+        <v>178.3029715687193</v>
       </c>
       <c r="G45" t="n">
-        <v>379.2954261215308</v>
+        <v>85.31098196411675</v>
       </c>
       <c r="H45" t="n">
-        <v>336.1739133904246</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I45" t="n">
-        <v>355.9927408271118</v>
+        <v>85.46560251410961</v>
       </c>
       <c r="J45" t="n">
-        <v>716.2854900075844</v>
+        <v>163.3794593197289</v>
       </c>
       <c r="K45" t="n">
-        <v>862.1528402427136</v>
+        <v>309.2468095548581</v>
       </c>
       <c r="L45" t="n">
-        <v>1065.816906720641</v>
+        <v>512.9108760327852</v>
       </c>
       <c r="M45" t="n">
-        <v>1306.628757164958</v>
+        <v>753.7227264771019</v>
       </c>
       <c r="N45" t="n">
-        <v>1556.15558553132</v>
+        <v>1003.249554843464</v>
       </c>
       <c r="O45" t="n">
-        <v>1780.813167743892</v>
+        <v>1227.907137056037</v>
       </c>
       <c r="P45" t="n">
-        <v>1957.979060367261</v>
+        <v>1405.073029679406</v>
       </c>
       <c r="Q45" t="n">
-        <v>2068.297898352844</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R45" t="n">
-        <v>2109.473461650528</v>
+        <v>1815.489017493114</v>
       </c>
       <c r="S45" t="n">
-        <v>2047.871352470359</v>
+        <v>1753.886908312945</v>
       </c>
       <c r="T45" t="n">
-        <v>1910.271144054845</v>
+        <v>1616.286699897431</v>
       </c>
       <c r="U45" t="n">
-        <v>1725.572802065126</v>
+        <v>1431.588357907712</v>
       </c>
       <c r="V45" t="n">
-        <v>1520.599663204392</v>
+        <v>1226.615219046978</v>
       </c>
       <c r="W45" t="n">
-        <v>1324.07828603761</v>
+        <v>1030.093841880195</v>
       </c>
       <c r="X45" t="n">
-        <v>1160.600939804272</v>
+        <v>866.6164956468584</v>
       </c>
       <c r="Y45" t="n">
-        <v>1020.908051157565</v>
+        <v>726.9236070001508</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1015.642991250558</v>
+        <v>552.2320124266806</v>
       </c>
       <c r="C46" t="n">
-        <v>843.6704281294735</v>
+        <v>380.2594493055966</v>
       </c>
       <c r="D46" t="n">
-        <v>680.3536552562442</v>
+        <v>380.2594493055966</v>
       </c>
       <c r="E46" t="n">
-        <v>514.1454494090978</v>
+        <v>214.0512434584501</v>
       </c>
       <c r="F46" t="n">
-        <v>342.2836751836581</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G46" t="n">
-        <v>176.9168679881773</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H46" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I46" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="J46" t="n">
-        <v>83.44117394564142</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K46" t="n">
-        <v>164.0487930513366</v>
+        <v>241.9705096995575</v>
       </c>
       <c r="L46" t="n">
-        <v>465.5902221471491</v>
+        <v>349.9802020495265</v>
       </c>
       <c r="M46" t="n">
-        <v>987.6849039056549</v>
+        <v>872.0748838080323</v>
       </c>
       <c r="N46" t="n">
-        <v>1498.684795104433</v>
+        <v>1383.07477500681</v>
       </c>
       <c r="O46" t="n">
-        <v>1977.429521969783</v>
+        <v>1861.819501872161</v>
       </c>
       <c r="P46" t="n">
-        <v>2060.791182666785</v>
+        <v>1945.181162569163</v>
       </c>
       <c r="Q46" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="R46" t="n">
-        <v>2109.473461650528</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="S46" t="n">
-        <v>1954.851519008029</v>
+        <v>1947.837849112289</v>
       </c>
       <c r="T46" t="n">
-        <v>1954.851519008029</v>
+        <v>1708.301922973052</v>
       </c>
       <c r="U46" t="n">
-        <v>1674.715624827076</v>
+        <v>1428.166028792099</v>
       </c>
       <c r="V46" t="n">
-        <v>1674.715624827076</v>
+        <v>1428.166028792099</v>
       </c>
       <c r="W46" t="n">
-        <v>1674.715624827076</v>
+        <v>1153.313624964612</v>
       </c>
       <c r="X46" t="n">
-        <v>1432.151728272881</v>
+        <v>910.7497284104169</v>
       </c>
       <c r="Y46" t="n">
-        <v>1205.808959962623</v>
+        <v>742.3979811387462</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>155.0162487328641</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>261.5369560913544</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>411.8021558202074</v>
+        <v>411.8021558202072</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>95.61236152414639</v>
+        <v>95.61236152414591</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>155.016248732864</v>
+        <v>285.2312044190433</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>42.5840801696404</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>181.7504607853305</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>411.8021558202073</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>261.5369560913546</v>
       </c>
       <c r="L18" t="n">
-        <v>261.5369560913546</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>358.8350430362266</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.4556430012464</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>155.0162487328633</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>155.016248732864</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9570,16 +9570,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>227.0979569865487</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>63.45564300124614</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>155.0162487328639</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>155.0162487328636</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>411.8021558202071</v>
+        <v>411.8021558202072</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>261.0887439148873</v>
+        <v>181.7504607853304</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>285.2312044190433</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>261.5369560913544</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10038,19 +10038,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>375.677431294675</v>
       </c>
       <c r="N28" t="n">
-        <v>81.62472894862221</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>155.016248732864</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>285.2312044190433</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.17098647720404</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>411.8021558202073</v>
+        <v>411.8021558202072</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>195.4866027735787</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>155.016248732864</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>155.016248732864</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.45564300124629</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>195.4866027735787</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>411.8021558202073</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>285.2312044190433</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>285.2312044190434</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>195.4866027735787</v>
       </c>
       <c r="M37" t="n">
-        <v>411.8021558202072</v>
+        <v>411.8021558202073</v>
       </c>
       <c r="N37" t="n">
-        <v>260.4592654805028</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>195.4866027735787</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>411.8021558202073</v>
+        <v>280.1262383410541</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>155.0162487328642</v>
       </c>
       <c r="K42" t="n">
-        <v>155.0162487328641</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11223,19 +11223,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>195.4866027735793</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>411.8021558202073</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>292.7000981278578</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>285.2312044190437</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>155.0162487328639</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>195.4866027735793</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>411.8021558202073</v>
+        <v>411.8021558202072</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>116.7777980784067</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>353.8696168495983</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>148.6854596893779</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>75.12481269147892</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>99.61041743614371</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,13 +23500,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.1753260008206</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>246.1645675682342</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>64.67250285939853</v>
       </c>
       <c r="H16" t="n">
-        <v>51.73210622351702</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I16" t="n">
         <v>72.26896432086183</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.501637708386724</v>
       </c>
       <c r="T17" t="n">
         <v>210.1161913164022</v>
       </c>
       <c r="U17" t="n">
-        <v>180.2239647236673</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>99.20403324014802</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>157.9143833595113</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>265.8515306937956</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>254.2116493729188</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>38.34507049675194</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>138.6389375107828</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>138.9567442318711</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>304.7194111315635</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I25" t="n">
-        <v>38.81598959911017</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.83193339178413</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>76.11753282263925</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>185.4470240675461</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>210.1161913164022</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24615,13 +24615,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.713139123526</v>
+        <v>158.3857892011363</v>
       </c>
       <c r="H28" t="n">
         <v>134.5230953913808</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>73.88514759525461</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -24694,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.1161913164022</v>
       </c>
       <c r="U29" t="n">
-        <v>100.736581706099</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.6101724117721</v>
       </c>
     </row>
     <row r="30">
@@ -24849,7 +24849,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.18223128179605</v>
+        <v>26.45609449719024</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>415.9964884929108</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>266.8932103610908</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>55.33251977056085</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S34" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>199.2305644466043</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>53.32025589506947</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>58.55484356332865</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V35" t="n">
-        <v>246.1645675682342</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>51.19441044517814</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H37" t="n">
         <v>134.5230953913808</v>
@@ -25362,13 +25362,13 @@
         <v>6.943533196782496</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3345352391432</v>
+        <v>3.280532006032502</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,13 +25393,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.1161913164022</v>
       </c>
       <c r="U38" t="n">
-        <v>185.1046313271651</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>332.8099499612762</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>31.91494980672523</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I40" t="n">
         <v>72.26896432086183</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.0757232160747</v>
+        <v>105.4733198570814</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25630,16 +25630,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.3310518139933</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>93.23839887612158</v>
       </c>
       <c r="U41" t="n">
-        <v>24.98544224421244</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I43" t="n">
         <v>72.26896432086183</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>153.0757232160747</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>182.3967556650293</v>
       </c>
       <c r="W43" t="n">
-        <v>79.97715883560483</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>385.9490756136305</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>168.6048548389994</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H46" t="n">
-        <v>73.41193494462765</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.41111082820143</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369439.7802986603</v>
+        <v>369439.78029866</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>369439.78029866</v>
+        <v>369439.7802986602</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>369439.7802986602</v>
+        <v>369439.7802986601</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>369439.78029866</v>
+        <v>369439.7802986601</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>369439.7802986602</v>
+        <v>369439.7802986601</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>369439.7802986601</v>
+        <v>369439.7802986602</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>369439.7802986601</v>
+        <v>369439.7802986602</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415983.8102981565</v>
+        <v>415983.8102981566</v>
       </c>
       <c r="C2" t="n">
-        <v>415984.4828755566</v>
+        <v>415984.4828755569</v>
       </c>
       <c r="D2" t="n">
-        <v>415985.1628214261</v>
+        <v>415985.1628214262</v>
       </c>
       <c r="E2" t="n">
-        <v>245228.641542874</v>
+        <v>245228.6415428739</v>
       </c>
       <c r="F2" t="n">
         <v>245228.6415428739</v>
@@ -26331,16 +26331,16 @@
         <v>245228.641542874</v>
       </c>
       <c r="H2" t="n">
-        <v>245228.641542874</v>
+        <v>245228.6415428739</v>
       </c>
       <c r="I2" t="n">
         <v>245228.6415428739</v>
       </c>
       <c r="J2" t="n">
-        <v>245228.641542874</v>
+        <v>245228.6415428739</v>
       </c>
       <c r="K2" t="n">
-        <v>245228.6415428738</v>
+        <v>245228.6415428739</v>
       </c>
       <c r="L2" t="n">
         <v>245228.6415428739</v>
@@ -26355,7 +26355,7 @@
         <v>245228.6415428739</v>
       </c>
       <c r="P2" t="n">
-        <v>245228.6415428739</v>
+        <v>245228.6415428738</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>2509.979145161261</v>
       </c>
       <c r="E3" t="n">
-        <v>511351.5492986416</v>
+        <v>511351.5492986415</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131422.3061342896</v>
+        <v>131422.3061342895</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>310092.0545566899</v>
       </c>
       <c r="E4" t="n">
-        <v>23175.64012108393</v>
+        <v>23175.64012108392</v>
       </c>
       <c r="F4" t="n">
-        <v>23175.64012108394</v>
+        <v>23175.64012108392</v>
       </c>
       <c r="G4" t="n">
         <v>23175.64012108392</v>
       </c>
       <c r="H4" t="n">
-        <v>23175.64012108392</v>
+        <v>23175.64012108391</v>
       </c>
       <c r="I4" t="n">
         <v>23175.64012108392</v>
@@ -26456,10 +26456,10 @@
         <v>23175.64012108392</v>
       </c>
       <c r="O4" t="n">
+        <v>23175.64012108394</v>
+      </c>
+      <c r="P4" t="n">
         <v>23175.64012108393</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23175.64012108394</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>34678.56176909891</v>
       </c>
       <c r="E5" t="n">
-        <v>42717.63957270507</v>
+        <v>42717.63957270506</v>
       </c>
       <c r="F5" t="n">
         <v>42717.63957270506</v>
@@ -26490,7 +26490,7 @@
         <v>42717.63957270506</v>
       </c>
       <c r="I5" t="n">
-        <v>42717.63957270505</v>
+        <v>42717.63957270506</v>
       </c>
       <c r="J5" t="n">
         <v>42717.63957270506</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28877.98626439962</v>
+        <v>28856.30652643438</v>
       </c>
       <c r="C6" t="n">
-        <v>67836.79962036625</v>
+        <v>67815.1222016336</v>
       </c>
       <c r="D6" t="n">
-        <v>68704.56735047593</v>
+        <v>68682.8922763841</v>
       </c>
       <c r="E6" t="n">
-        <v>-332016.1874495566</v>
+        <v>-332626.6781142643</v>
       </c>
       <c r="F6" t="n">
-        <v>179335.361849085</v>
+        <v>178724.8711843773</v>
       </c>
       <c r="G6" t="n">
-        <v>179335.361849085</v>
+        <v>178724.8711843773</v>
       </c>
       <c r="H6" t="n">
-        <v>179335.361849085</v>
+        <v>178724.8711843773</v>
       </c>
       <c r="I6" t="n">
-        <v>179335.3618490849</v>
+        <v>178724.8711843772</v>
       </c>
       <c r="J6" t="n">
-        <v>179335.361849085</v>
+        <v>178724.8711843773</v>
       </c>
       <c r="K6" t="n">
-        <v>179335.3618490849</v>
+        <v>178724.8711843773</v>
       </c>
       <c r="L6" t="n">
-        <v>179335.3618490849</v>
+        <v>178724.8711843773</v>
       </c>
       <c r="M6" t="n">
-        <v>47913.05571479529</v>
+        <v>47302.56505008772</v>
       </c>
       <c r="N6" t="n">
-        <v>179335.3618490849</v>
+        <v>178724.8711843773</v>
       </c>
       <c r="O6" t="n">
-        <v>179335.3618490849</v>
+        <v>178724.8711843773</v>
       </c>
       <c r="P6" t="n">
-        <v>179335.3618490849</v>
+        <v>178724.8711843772</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>488.6992181475702</v>
       </c>
       <c r="H3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="I3" t="n">
         <v>488.6992181475702</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3683654126322</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="F4" t="n">
         <v>527.3683654126321</v>
@@ -26810,7 +26810,7 @@
         <v>527.3683654126321</v>
       </c>
       <c r="I4" t="n">
-        <v>527.368365412632</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="J4" t="n">
         <v>527.3683654126321</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3683654126322</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>527.3683654126322</v>
+        <v>527.368365412632</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>527.3683654126322</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32463,19 +32463,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H20" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I20" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J20" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K20" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L20" t="n">
         <v>310.0317663028048</v>
@@ -32487,10 +32487,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O20" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P20" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q20" t="n">
         <v>212.1568550501846</v>
@@ -32499,13 +32499,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S20" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T20" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H21" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I21" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J21" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K21" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L21" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M21" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N21" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O21" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P21" t="n">
         <v>200.7262882991407</v>
@@ -32575,16 +32575,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R21" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S21" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T21" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H22" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I22" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J22" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K22" t="n">
         <v>102.3864919332122</v>
@@ -32645,25 +32645,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O22" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P22" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R22" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S22" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T22" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>310.0317663028048</v>
       </c>
       <c r="M44" t="n">
-        <v>344.9700767379084</v>
+        <v>344.9700767379076</v>
       </c>
       <c r="N44" t="n">
         <v>350.5520532346384</v>
@@ -34392,7 +34392,7 @@
         <v>212.1568550501846</v>
       </c>
       <c r="R44" t="n">
-        <v>123.4100593445721</v>
+        <v>123.4100593445727</v>
       </c>
       <c r="S44" t="n">
         <v>44.76877762226234</v>
@@ -35491,7 +35491,7 @@
         <v>78.70086546022149</v>
       </c>
       <c r="K12" t="n">
-        <v>302.3570065461259</v>
+        <v>147.3407578132619</v>
       </c>
       <c r="L12" t="n">
         <v>205.7212792706333</v>
@@ -35509,10 +35509,10 @@
         <v>178.955447094312</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.4331696824072</v>
+        <v>372.9701257737616</v>
       </c>
       <c r="R12" t="n">
-        <v>148.1121854369598</v>
+        <v>41.59147807846912</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>109.1006993434031</v>
       </c>
       <c r="M13" t="n">
-        <v>527.3683654126322</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N13" t="n">
         <v>516.1615062613919</v>
@@ -35585,7 +35585,7 @@
         <v>102.0630328910579</v>
       </c>
       <c r="P13" t="n">
-        <v>179.8160591978857</v>
+        <v>179.8160591978852</v>
       </c>
       <c r="Q13" t="n">
         <v>202.0765417794366</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.71326594050407</v>
+        <v>20.01901761281535</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7171141930855</v>
+        <v>363.9320698792648</v>
       </c>
       <c r="K15" t="n">
         <v>147.3407578132619</v>
@@ -35749,7 +35749,7 @@
         <v>111.4331696824072</v>
       </c>
       <c r="R15" t="n">
-        <v>148.1121854369598</v>
+        <v>41.59147807846912</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.3771932937896</v>
+        <v>84.25246876825743</v>
       </c>
       <c r="K16" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050022</v>
       </c>
       <c r="L16" t="n">
-        <v>290.8511601287336</v>
+        <v>109.1006993434031</v>
       </c>
       <c r="M16" t="n">
         <v>527.3683654126321</v>
       </c>
       <c r="N16" t="n">
-        <v>114.1080488453513</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O16" t="n">
-        <v>102.0630328910579</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P16" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373927</v>
       </c>
       <c r="Q16" t="n">
         <v>202.0765417794366</v>
@@ -35965,10 +35965,10 @@
         <v>78.70086546022149</v>
       </c>
       <c r="K18" t="n">
-        <v>147.3407578132619</v>
+        <v>408.8777139046164</v>
       </c>
       <c r="L18" t="n">
-        <v>467.2582353619879</v>
+        <v>205.7212792706333</v>
       </c>
       <c r="M18" t="n">
         <v>243.2442933780978</v>
@@ -36050,19 +36050,19 @@
         <v>489.2915009506405</v>
       </c>
       <c r="M19" t="n">
-        <v>115.5662095924249</v>
+        <v>474.4012526286515</v>
       </c>
       <c r="N19" t="n">
-        <v>114.1080488453513</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O19" t="n">
-        <v>483.5805321872228</v>
+        <v>102.0630328910579</v>
       </c>
       <c r="P19" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373927</v>
       </c>
       <c r="Q19" t="n">
-        <v>112.6296621767446</v>
+        <v>49.17401917549816</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J20" t="n">
         <v>137.3247049013576</v>
@@ -36126,25 +36126,25 @@
         <v>214.1424270260509</v>
       </c>
       <c r="L20" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M20" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N20" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O20" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P20" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q20" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R20" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.71326594050407</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J21" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930848</v>
       </c>
       <c r="K21" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L21" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M21" t="n">
-        <v>398.2605421109618</v>
+        <v>243.2442933780978</v>
       </c>
       <c r="N21" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O21" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P21" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q21" t="n">
         <v>111.4331696824072</v>
       </c>
       <c r="R21" t="n">
-        <v>148.1121854369598</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.66838859861703</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K22" t="n">
-        <v>81.42183748050022</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L22" t="n">
         <v>489.2915009506405</v>
@@ -36290,16 +36290,16 @@
         <v>115.5662095924249</v>
       </c>
       <c r="N22" t="n">
-        <v>516.1615062613919</v>
+        <v>114.1080488453513</v>
       </c>
       <c r="O22" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P22" t="n">
-        <v>311.301654660288</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.17401917549816</v>
+        <v>112.6296621767443</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>243.2442933780978</v>
       </c>
       <c r="N24" t="n">
-        <v>407.0635501130276</v>
+        <v>252.0473013801637</v>
       </c>
       <c r="O24" t="n">
         <v>226.9268507197706</v>
@@ -36457,7 +36457,7 @@
         <v>178.955447094312</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.4331696824072</v>
+        <v>266.4494184152708</v>
       </c>
       <c r="R24" t="n">
         <v>148.1121854369598</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.66838859861703</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K25" t="n">
-        <v>81.42183748050022</v>
+        <v>331.2022507269871</v>
       </c>
       <c r="L25" t="n">
         <v>109.1006993434031</v>
       </c>
       <c r="M25" t="n">
-        <v>527.368365412632</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N25" t="n">
-        <v>516.1615062613919</v>
+        <v>114.1080488453513</v>
       </c>
       <c r="O25" t="n">
-        <v>363.1517768059452</v>
+        <v>283.8134936763883</v>
       </c>
       <c r="P25" t="n">
         <v>400.1190558285954</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.17401917549816</v>
+        <v>202.0765417794366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>43.71326594050407</v>
+        <v>20.01901761281535</v>
       </c>
       <c r="J27" t="n">
-        <v>78.70086546022149</v>
+        <v>363.9320698792648</v>
       </c>
       <c r="K27" t="n">
         <v>147.3407578132619</v>
@@ -36694,7 +36694,7 @@
         <v>178.955447094312</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.9701257737616</v>
+        <v>111.4331696824072</v>
       </c>
       <c r="R27" t="n">
         <v>41.59147807846912</v>
@@ -36758,19 +36758,19 @@
         <v>81.42183748050022</v>
       </c>
       <c r="L28" t="n">
-        <v>489.2915009506405</v>
+        <v>109.1006993434031</v>
       </c>
       <c r="M28" t="n">
-        <v>115.5662095924249</v>
+        <v>491.2436408870999</v>
       </c>
       <c r="N28" t="n">
-        <v>195.7327777939735</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O28" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P28" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373927</v>
       </c>
       <c r="Q28" t="n">
         <v>202.0765417794366</v>
@@ -36831,7 +36831,7 @@
         <v>41.1931089440132</v>
       </c>
       <c r="J29" t="n">
-        <v>137.324704901358</v>
+        <v>137.3247049013576</v>
       </c>
       <c r="K29" t="n">
         <v>214.1424270260509</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050407</v>
       </c>
       <c r="J30" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930855</v>
       </c>
       <c r="K30" t="n">
         <v>147.3407578132619</v>
@@ -36928,13 +36928,13 @@
         <v>226.9268507197706</v>
       </c>
       <c r="P30" t="n">
-        <v>464.1866515133553</v>
+        <v>178.955447094312</v>
       </c>
       <c r="Q30" t="n">
         <v>111.4331696824072</v>
       </c>
       <c r="R30" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369598</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.83937507582107</v>
+        <v>41.66838859861703</v>
       </c>
       <c r="K31" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050022</v>
       </c>
       <c r="L31" t="n">
-        <v>489.2915009506405</v>
+        <v>109.1006993434031</v>
       </c>
       <c r="M31" t="n">
         <v>527.3683654126321</v>
       </c>
       <c r="N31" t="n">
-        <v>114.1080488453513</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O31" t="n">
-        <v>102.0630328910579</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P31" t="n">
-        <v>400.1190558285954</v>
+        <v>279.690300447318</v>
       </c>
       <c r="Q31" t="n">
         <v>49.17401917549816</v>
@@ -37147,7 +37147,7 @@
         <v>43.71326594050407</v>
       </c>
       <c r="J33" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930855</v>
       </c>
       <c r="K33" t="n">
         <v>147.3407578132619</v>
@@ -37156,7 +37156,7 @@
         <v>205.7212792706333</v>
       </c>
       <c r="M33" t="n">
-        <v>398.2605421109618</v>
+        <v>243.2442933780978</v>
       </c>
       <c r="N33" t="n">
         <v>252.0473013801637</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.1240315998633</v>
+        <v>41.66838859861703</v>
       </c>
       <c r="K34" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050022</v>
       </c>
       <c r="L34" t="n">
-        <v>489.2915009506405</v>
+        <v>304.5873021169818</v>
       </c>
       <c r="M34" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N34" t="n">
-        <v>114.1080488453513</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O34" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P34" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373927</v>
       </c>
       <c r="Q34" t="n">
         <v>49.17401917549816</v>
@@ -37387,7 +37387,7 @@
         <v>78.70086546022149</v>
       </c>
       <c r="K36" t="n">
-        <v>147.3407578132619</v>
+        <v>432.5719622323052</v>
       </c>
       <c r="L36" t="n">
         <v>205.7212792706333</v>
@@ -37405,7 +37405,7 @@
         <v>178.955447094312</v>
       </c>
       <c r="Q36" t="n">
-        <v>396.6643741014506</v>
+        <v>111.4331696824072</v>
       </c>
       <c r="R36" t="n">
         <v>41.59147807846912</v>
@@ -37466,25 +37466,25 @@
         <v>41.66838859861703</v>
       </c>
       <c r="K37" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050022</v>
       </c>
       <c r="L37" t="n">
-        <v>109.1006993434031</v>
+        <v>304.5873021169818</v>
       </c>
       <c r="M37" t="n">
         <v>527.3683654126321</v>
       </c>
       <c r="N37" t="n">
-        <v>374.5673143258542</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O37" t="n">
-        <v>102.0630328910579</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P37" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373927</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549816</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.66838859861703</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K40" t="n">
-        <v>81.42183748050022</v>
+        <v>331.2022507269871</v>
       </c>
       <c r="L40" t="n">
-        <v>304.5873021169818</v>
+        <v>489.2915009506405</v>
       </c>
       <c r="M40" t="n">
-        <v>527.3683654126321</v>
+        <v>395.692447933479</v>
       </c>
       <c r="N40" t="n">
         <v>516.1615062613919</v>
       </c>
       <c r="O40" t="n">
-        <v>483.5805321872228</v>
+        <v>102.0630328910579</v>
       </c>
       <c r="P40" t="n">
         <v>84.20369767373927</v>
@@ -37858,10 +37858,10 @@
         <v>43.71326594050407</v>
       </c>
       <c r="J42" t="n">
-        <v>78.70086546022148</v>
+        <v>233.7171141930856</v>
       </c>
       <c r="K42" t="n">
-        <v>302.357006546126</v>
+        <v>147.3407578132619</v>
       </c>
       <c r="L42" t="n">
         <v>205.7212792706333</v>
@@ -37943,19 +37943,19 @@
         <v>81.4218374805002</v>
       </c>
       <c r="L43" t="n">
-        <v>489.2915009506404</v>
+        <v>304.5873021169824</v>
       </c>
       <c r="M43" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N43" t="n">
         <v>516.1615062613919</v>
       </c>
       <c r="O43" t="n">
-        <v>394.7631310189157</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P43" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373926</v>
       </c>
       <c r="Q43" t="n">
         <v>49.17401917549815</v>
@@ -38025,7 +38025,7 @@
         <v>271.7197238701818</v>
       </c>
       <c r="M44" t="n">
-        <v>307.5388138384765</v>
+        <v>307.5388138384758</v>
       </c>
       <c r="N44" t="n">
         <v>313.2724304001924</v>
@@ -38040,7 +38040,7 @@
         <v>176.0321804455865</v>
       </c>
       <c r="R44" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977622</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.01901761281534</v>
+        <v>43.71326594050407</v>
       </c>
       <c r="J45" t="n">
-        <v>363.9320698792652</v>
+        <v>78.70086546022148</v>
       </c>
       <c r="K45" t="n">
         <v>147.3407578132619</v>
@@ -38116,10 +38116,10 @@
         <v>178.955447094312</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.4331696824072</v>
+        <v>266.4494184152711</v>
       </c>
       <c r="R45" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369598</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.66838859861703</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K46" t="n">
         <v>81.4218374805002</v>
       </c>
       <c r="L46" t="n">
-        <v>304.5873021169824</v>
+        <v>109.1006993434031</v>
       </c>
       <c r="M46" t="n">
         <v>527.3683654126321</v>
@@ -38195,7 +38195,7 @@
         <v>84.20369767373926</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.17401917549815</v>
+        <v>165.9518172539049</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
